--- a/pred_ohlcv/54_23/2019-10-07 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-07 XRP ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3888,7 +3888,7 @@
         <v>318</v>
       </c>
       <c r="F153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -3911,7 +3911,7 @@
         <v>318</v>
       </c>
       <c r="F154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -3980,7 +3980,7 @@
         <v>319</v>
       </c>
       <c r="F157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -4003,7 +4003,7 @@
         <v>320</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -4026,7 +4026,7 @@
         <v>322</v>
       </c>
       <c r="F159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -4141,7 +4141,7 @@
         <v>322</v>
       </c>
       <c r="F164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -4164,7 +4164,7 @@
         <v>322</v>
       </c>
       <c r="F165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -4187,7 +4187,7 @@
         <v>321</v>
       </c>
       <c r="F166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -4210,7 +4210,7 @@
         <v>320</v>
       </c>
       <c r="F167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -4233,7 +4233,7 @@
         <v>320</v>
       </c>
       <c r="F168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -4417,7 +4417,7 @@
         <v>321</v>
       </c>
       <c r="F176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -4440,7 +4440,7 @@
         <v>320</v>
       </c>
       <c r="F177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -4463,7 +4463,7 @@
         <v>320</v>
       </c>
       <c r="F178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -4486,7 +4486,7 @@
         <v>320</v>
       </c>
       <c r="F179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -4509,7 +4509,7 @@
         <v>319</v>
       </c>
       <c r="F180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -4532,7 +4532,7 @@
         <v>319</v>
       </c>
       <c r="F181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -4555,7 +4555,7 @@
         <v>321</v>
       </c>
       <c r="F182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -4578,7 +4578,7 @@
         <v>321</v>
       </c>
       <c r="F183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -4601,7 +4601,7 @@
         <v>320</v>
       </c>
       <c r="F184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -6418,7 +6418,7 @@
         <v>316</v>
       </c>
       <c r="F263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G263" t="n">
         <v>0</v>
@@ -6441,10 +6441,10 @@
         <v>316</v>
       </c>
       <c r="F264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -6464,10 +6464,10 @@
         <v>316</v>
       </c>
       <c r="F265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -6487,10 +6487,10 @@
         <v>316</v>
       </c>
       <c r="F266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -6510,10 +6510,10 @@
         <v>316</v>
       </c>
       <c r="F267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -6533,10 +6533,10 @@
         <v>317</v>
       </c>
       <c r="F268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -6579,10 +6579,10 @@
         <v>317</v>
       </c>
       <c r="F270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -6602,10 +6602,10 @@
         <v>317</v>
       </c>
       <c r="F271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -6625,10 +6625,10 @@
         <v>317</v>
       </c>
       <c r="F272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -6648,7 +6648,7 @@
         <v>316</v>
       </c>
       <c r="F273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" t="n">
         <v>0</v>
@@ -6671,10 +6671,10 @@
         <v>316</v>
       </c>
       <c r="F274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -6694,10 +6694,10 @@
         <v>316</v>
       </c>
       <c r="F275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -6740,10 +6740,10 @@
         <v>316</v>
       </c>
       <c r="F277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -6763,10 +6763,10 @@
         <v>316</v>
       </c>
       <c r="F278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -6786,10 +6786,10 @@
         <v>316</v>
       </c>
       <c r="F279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6809,10 +6809,10 @@
         <v>316</v>
       </c>
       <c r="F280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -6832,10 +6832,10 @@
         <v>316</v>
       </c>
       <c r="F281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -6878,10 +6878,10 @@
         <v>316</v>
       </c>
       <c r="F283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -6904,7 +6904,7 @@
         <v>1</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -6950,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -6970,7 +6970,7 @@
         <v>316</v>
       </c>
       <c r="F287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G287" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>316</v>
       </c>
       <c r="F288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" t="n">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>316</v>
       </c>
       <c r="F289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         <v>317</v>
       </c>
       <c r="F290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G290" t="n">
         <v>0</v>
@@ -7062,7 +7062,7 @@
         <v>317</v>
       </c>
       <c r="F291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G291" t="n">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>316</v>
       </c>
       <c r="F292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G292" t="n">
         <v>0</v>
@@ -7108,7 +7108,7 @@
         <v>316</v>
       </c>
       <c r="F293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G293" t="n">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>316</v>
       </c>
       <c r="F294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G294" t="n">
         <v>0</v>
@@ -7154,7 +7154,7 @@
         <v>317</v>
       </c>
       <c r="F295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G295" t="n">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>317</v>
       </c>
       <c r="F296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G296" t="n">
         <v>0</v>
@@ -7200,7 +7200,7 @@
         <v>318</v>
       </c>
       <c r="F297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297" t="n">
         <v>0</v>
@@ -7246,7 +7246,7 @@
         <v>317</v>
       </c>
       <c r="F299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G299" t="n">
         <v>0</v>
@@ -7269,7 +7269,7 @@
         <v>317</v>
       </c>
       <c r="F300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G300" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>317</v>
       </c>
       <c r="F301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G301" t="n">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>317</v>
       </c>
       <c r="F302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G302" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>317</v>
       </c>
       <c r="F303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G303" t="n">
         <v>0</v>
@@ -7361,7 +7361,7 @@
         <v>318</v>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G304" t="n">
         <v>0</v>
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -8925,7 +8925,7 @@
         <v>318</v>
       </c>
       <c r="F372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G372" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -9526,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399">
@@ -9549,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
@@ -9595,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402">
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="G407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="G409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="G410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="G411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413">
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="G413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="G414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -9917,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="G415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -9940,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="G416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="G420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="G451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -10768,7 +10768,7 @@
         <v>0</v>
       </c>
       <c r="G452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -10791,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="G453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="G454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="G455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -10860,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="G456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -10883,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="G457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="G504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="G505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -12010,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="G506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -12125,7 +12125,7 @@
         <v>0</v>
       </c>
       <c r="G511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="G512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="G513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -12194,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="G514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="G515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="G516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="G517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -12286,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="G518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="G519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="G520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -12355,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="G521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -12378,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="G522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -12401,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="G523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -12424,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="G524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -12447,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="G525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="G539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -12792,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="G540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="G541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="G542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -12861,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="G543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="G544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -12907,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="G545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="G546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="G547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="G548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -12999,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="G549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -13022,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="G550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -13045,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="G551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="G552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="G553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -14126,7 +14126,7 @@
         <v>0</v>
       </c>
       <c r="G598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="G599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="G600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -14195,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="G601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -14218,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="G602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -14241,7 +14241,7 @@
         <v>0</v>
       </c>
       <c r="G603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
@@ -14264,7 +14264,7 @@
         <v>0</v>
       </c>
       <c r="G604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
@@ -14287,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="G605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -14310,7 +14310,7 @@
         <v>0</v>
       </c>
       <c r="G606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -14333,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="G607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -14356,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="G608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="G609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -14402,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="G610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -14425,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="G611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="G612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
@@ -14494,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="G614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="G671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672">
@@ -16633,7 +16633,7 @@
         <v>0</v>
       </c>
       <c r="G707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708">
@@ -16656,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="G708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709">
@@ -16679,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="G709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710">
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="G710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="G711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712">
@@ -16748,7 +16748,7 @@
         <v>0</v>
       </c>
       <c r="G712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713">
@@ -16771,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="G713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714">
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="G714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715">
@@ -16817,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="G715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716">
@@ -16840,7 +16840,7 @@
         <v>0</v>
       </c>
       <c r="G716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717">
@@ -16863,7 +16863,7 @@
         <v>0</v>
       </c>
       <c r="G717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718">
@@ -16886,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="G718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719">
@@ -16909,7 +16909,7 @@
         <v>0</v>
       </c>
       <c r="G719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720">
@@ -16932,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="G720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721">
@@ -17024,7 +17024,7 @@
         <v>0</v>
       </c>
       <c r="G724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725">
@@ -17047,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="G725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726">
@@ -17070,7 +17070,7 @@
         <v>0</v>
       </c>
       <c r="G726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727">
@@ -17093,7 +17093,7 @@
         <v>0</v>
       </c>
       <c r="G727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728">
@@ -18040,6 +18040,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>